--- a/data/databasecsv.xlsx
+++ b/data/databasecsv.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maximeducotterd/Desktop/finalcapstone/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maximeducotterd/Desktop/DSAP_intercantonal_dynamics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5034745C-6A1D-294E-95F3-66303C39D988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC4FF5E-0EB0-3B43-96B8-45AA2F3A3C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{84DBC18D-2D30-E647-B564-5004DFEC53A4}"/>
   </bookViews>
@@ -351,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -394,13 +394,12 @@
     <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2033,13 +2032,13 @@
   </sheetPr>
   <dimension ref="A1:AL286"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="107" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="16.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="16.1640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="16.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.1640625" style="6" customWidth="1"/>

--- a/data/databasecsv.xlsx
+++ b/data/databasecsv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maximeducotterd/Desktop/DSAP_intercantonal_dynamics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC4FF5E-0EB0-3B43-96B8-45AA2F3A3C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F103EA7-44FF-9840-930C-B0FBBF66D429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{84DBC18D-2D30-E647-B564-5004DFEC53A4}"/>
   </bookViews>
@@ -2032,8 +2032,8 @@
   </sheetPr>
   <dimension ref="A1:AL286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="107" workbookViewId="0">
+      <selection activeCell="AG6" sqref="AG6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2291,8 +2291,8 @@
         <v>0</v>
       </c>
       <c r="AG2" s="14">
-        <f>LN(1+AF2)</f>
-        <v>0</v>
+        <f>AG8</f>
+        <v>0.10337295958495014</v>
       </c>
       <c r="AH2" s="14">
         <f>(AF2-AVERAGE($AF$2:$AF$261))/STDEV($AF$2:$AF$261)</f>

--- a/data/databasecsv.xlsx
+++ b/data/databasecsv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maximeducotterd/Desktop/DSAP_intercantonal_dynamics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F103EA7-44FF-9840-930C-B0FBBF66D429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87F6C43-6DC0-784C-86BE-36654013F6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{84DBC18D-2D30-E647-B564-5004DFEC53A4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="10860" windowHeight="16380" xr2:uid="{84DBC18D-2D30-E647-B564-5004DFEC53A4}"/>
   </bookViews>
   <sheets>
     <sheet name="panel_choc_taux_suisse_2014_202" sheetId="1" r:id="rId1"/>
@@ -2032,8 +2032,8 @@
   </sheetPr>
   <dimension ref="A1:AL286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="AG6" sqref="AG6"/>
+    <sheetView tabSelected="1" topLeftCell="A234" zoomScale="75" workbookViewId="0">
+      <selection activeCell="E263" sqref="E263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11762,10 +11762,10 @@
         <v>0</v>
       </c>
       <c r="D72" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72" s="14">
         <v>1402.17</v>
@@ -11895,10 +11895,10 @@
         <v>0</v>
       </c>
       <c r="D73" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73" s="14">
         <v>1365.83</v>
@@ -12032,10 +12032,10 @@
         <v>0</v>
       </c>
       <c r="D74" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74" s="14">
         <v>1360.67</v>
@@ -12169,10 +12169,10 @@
         <v>0</v>
       </c>
       <c r="D75" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75" s="14">
         <v>1369.83</v>
@@ -12306,10 +12306,10 @@
         <v>0</v>
       </c>
       <c r="D76" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76" s="14">
         <v>1384</v>
@@ -12443,10 +12443,10 @@
         <v>0</v>
       </c>
       <c r="D77" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77" s="14">
         <v>1413.83</v>
@@ -12580,10 +12580,10 @@
         <v>0</v>
       </c>
       <c r="D78" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78" s="14">
         <v>1417.17</v>
@@ -12717,10 +12717,10 @@
         <v>0</v>
       </c>
       <c r="D79" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79" s="14">
         <v>1432.83</v>
@@ -12854,10 +12854,10 @@
         <v>0</v>
       </c>
       <c r="D80" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80" s="14">
         <v>1453.83</v>
@@ -12991,10 +12991,10 @@
         <v>0</v>
       </c>
       <c r="D81" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81" s="14">
         <v>1668.86</v>
@@ -32252,10 +32252,10 @@
         <v>0</v>
       </c>
       <c r="D222" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E222" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F222" s="14">
         <v>1348.67</v>
@@ -32385,10 +32385,10 @@
         <v>0</v>
       </c>
       <c r="D223" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E223" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F223" s="14">
         <v>1311.67</v>
@@ -32522,10 +32522,10 @@
         <v>0</v>
       </c>
       <c r="D224" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E224" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F224" s="14">
         <v>1343.5</v>
@@ -32659,10 +32659,10 @@
         <v>0</v>
       </c>
       <c r="D225" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E225" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F225" s="14">
         <v>1357.83</v>
@@ -32796,10 +32796,10 @@
         <v>0</v>
       </c>
       <c r="D226" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E226" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F226" s="14">
         <v>1383.17</v>
@@ -32933,10 +32933,10 @@
         <v>0</v>
       </c>
       <c r="D227" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E227" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F227" s="14">
         <v>1400.17</v>
@@ -33070,10 +33070,10 @@
         <v>0</v>
       </c>
       <c r="D228" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E228" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F228" s="14">
         <v>1416.83</v>
@@ -33207,10 +33207,10 @@
         <v>0</v>
       </c>
       <c r="D229" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E229" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F229" s="14">
         <v>1434.83</v>
@@ -33344,10 +33344,10 @@
         <v>0</v>
       </c>
       <c r="D230" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E230" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F230" s="14">
         <v>1463.33</v>
@@ -33481,10 +33481,10 @@
         <v>0</v>
       </c>
       <c r="D231" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E231" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F231" s="14">
         <v>1690.57</v>
